--- a/CP/stats.xlsx
+++ b/CP/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bddf3b150f09e84d/Desktop/cdmo-m1_project/CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1032" documentId="8_{FB34CF16-DA6E-41BF-8758-B6F87D20EFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1878B2D1-23F9-413F-8C12-A2D80B7F22C9}"/>
+  <xr:revisionPtr revIDLastSave="1033" documentId="8_{FB34CF16-DA6E-41BF-8758-B6F87D20EFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8AE046D-E0DA-4E2C-94C6-E368B9F2DABE}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3024" yWindow="1008" windowWidth="19584" windowHeight="11340" xr2:uid="{AA380840-D976-4584-9954-1634D918EB26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AA380840-D976-4584-9954-1634D918EB26}"/>
   </bookViews>
   <sheets>
     <sheet name="Time comparison" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +316,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -751,18 +757,6 @@
     <xf numFmtId="2" fontId="6" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -772,25 +766,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="10" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1111,7 +1123,7 @@
   <dimension ref="A2:AR41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+      <selection activeCell="AQ20" sqref="B20:AQ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,48 +1133,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="74"/>
+      <c r="AP2" s="74"/>
     </row>
     <row r="3" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34"/>
@@ -1289,18 +1301,18 @@
       <c r="AP3" s="36">
         <v>40</v>
       </c>
-      <c r="AQ3" s="79" t="s">
+      <c r="AQ3" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="AR3" s="80" t="s">
+      <c r="AR3" s="73" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="67" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="52">
@@ -1423,14 +1435,14 @@
       <c r="AP4" s="54">
         <v>300</v>
       </c>
-      <c r="AQ4" s="67">
+      <c r="AQ4" s="63">
         <f>COUNTIF(C4:AP4,"&lt;300")</f>
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="74" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="68" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="55">
@@ -1553,14 +1565,14 @@
       <c r="AP5" s="57">
         <v>300</v>
       </c>
-      <c r="AQ5" s="68">
+      <c r="AQ5" s="64">
         <f t="shared" ref="AQ5:AQ26" si="0">COUNTIF(C5:AP5,"&lt;300")</f>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
-      <c r="B6" s="74" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="68" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="55">
@@ -1683,14 +1695,14 @@
       <c r="AP6" s="57">
         <v>300</v>
       </c>
-      <c r="AQ6" s="68">
+      <c r="AQ6" s="64">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="74" t="s">
+      <c r="A7" s="76"/>
+      <c r="B7" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="55">
@@ -1813,14 +1825,14 @@
       <c r="AP7" s="57">
         <v>300</v>
       </c>
-      <c r="AQ7" s="68">
+      <c r="AQ7" s="64">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="74" t="s">
+      <c r="A8" s="76"/>
+      <c r="B8" s="68" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="55">
@@ -1943,14 +1955,14 @@
       <c r="AP8" s="57">
         <v>300</v>
       </c>
-      <c r="AQ8" s="68">
+      <c r="AQ8" s="64">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A9" s="63"/>
-      <c r="B9" s="74" t="s">
+      <c r="A9" s="76"/>
+      <c r="B9" s="68" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="55">
@@ -2073,14 +2085,14 @@
       <c r="AP9" s="57">
         <v>300</v>
       </c>
-      <c r="AQ9" s="68">
+      <c r="AQ9" s="64">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
-      <c r="B10" s="74" t="s">
+      <c r="A10" s="76"/>
+      <c r="B10" s="68" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="55">
@@ -2203,14 +2215,14 @@
       <c r="AP10" s="57">
         <v>300</v>
       </c>
-      <c r="AQ10" s="68">
+      <c r="AQ10" s="64">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="76"/>
+      <c r="B11" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="58">
@@ -2333,16 +2345,16 @@
       <c r="AP11" s="59">
         <v>300</v>
       </c>
-      <c r="AQ11" s="71">
+      <c r="AQ11" s="66">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="67" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="52">
@@ -2465,14 +2477,14 @@
       <c r="AP12" s="54">
         <v>300</v>
       </c>
-      <c r="AQ12" s="68">
+      <c r="AQ12" s="64">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="74" t="s">
+      <c r="A13" s="75"/>
+      <c r="B13" s="68" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="55">
@@ -2595,14 +2607,14 @@
       <c r="AP13" s="57">
         <v>300</v>
       </c>
-      <c r="AQ13" s="68">
+      <c r="AQ13" s="64">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A14" s="72"/>
-      <c r="B14" s="74" t="s">
+      <c r="A14" s="75"/>
+      <c r="B14" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="55">
@@ -2725,14 +2737,14 @@
       <c r="AP14" s="57">
         <v>300</v>
       </c>
-      <c r="AQ14" s="68">
+      <c r="AQ14" s="64">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
-      <c r="B15" s="76" t="s">
+      <c r="A15" s="75"/>
+      <c r="B15" s="70" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="55">
@@ -2855,14 +2867,14 @@
       <c r="AP15" s="57">
         <v>300</v>
       </c>
-      <c r="AQ15" s="68">
+      <c r="AQ15" s="64">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
-      <c r="B16" s="74" t="s">
+      <c r="A16" s="75"/>
+      <c r="B16" s="68" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="55">
@@ -2985,14 +2997,14 @@
       <c r="AP16" s="57">
         <v>300</v>
       </c>
-      <c r="AQ16" s="68">
+      <c r="AQ16" s="64">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
-      <c r="B17" s="74" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="55">
@@ -3115,14 +3127,14 @@
       <c r="AP17" s="57">
         <v>300</v>
       </c>
-      <c r="AQ17" s="68">
+      <c r="AQ17" s="64">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A18" s="72"/>
-      <c r="B18" s="74" t="s">
+      <c r="A18" s="75"/>
+      <c r="B18" s="68" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="55">
@@ -3245,14 +3257,14 @@
       <c r="AP18" s="57">
         <v>300</v>
       </c>
-      <c r="AQ18" s="68">
+      <c r="AQ18" s="64">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A19" s="72"/>
-      <c r="B19" s="74" t="s">
+      <c r="A19" s="75"/>
+      <c r="B19" s="68" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="55">
@@ -3375,14 +3387,14 @@
       <c r="AP19" s="57">
         <v>300</v>
       </c>
-      <c r="AQ19" s="68">
+      <c r="AQ19" s="64">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A20" s="72"/>
-      <c r="B20" s="74" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="55">
@@ -3505,14 +3517,14 @@
       <c r="AP20" s="57">
         <v>300</v>
       </c>
-      <c r="AQ20" s="68">
+      <c r="AQ20" s="64">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
-      <c r="B21" s="76" t="s">
+      <c r="A21" s="75"/>
+      <c r="B21" s="70" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="55">
@@ -3635,14 +3647,14 @@
       <c r="AP21" s="57">
         <v>300</v>
       </c>
-      <c r="AQ21" s="68">
+      <c r="AQ21" s="64">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
-      <c r="B22" s="76" t="s">
+      <c r="A22" s="75"/>
+      <c r="B22" s="70" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="55">
@@ -3765,14 +3777,14 @@
       <c r="AP22" s="57">
         <v>300</v>
       </c>
-      <c r="AQ22" s="68">
+      <c r="AQ22" s="64">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A23" s="72"/>
-      <c r="B23" s="76" t="s">
+      <c r="A23" s="75"/>
+      <c r="B23" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="55">
@@ -3895,14 +3907,14 @@
       <c r="AP23" s="57">
         <v>300</v>
       </c>
-      <c r="AQ23" s="68">
+      <c r="AQ23" s="64">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A24" s="72"/>
-      <c r="B24" s="77" t="s">
+      <c r="A24" s="75"/>
+      <c r="B24" s="71" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="58">
@@ -4025,142 +4037,142 @@
       <c r="AP24" s="59">
         <v>300</v>
       </c>
-      <c r="AQ24" s="68">
+      <c r="AQ24" s="64">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="80">
         <v>0.36</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="80">
         <v>0.31</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="80">
         <v>0.37</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F25" s="80">
         <v>0.32</v>
       </c>
-      <c r="G25" s="52">
+      <c r="G25" s="80">
         <v>0.32</v>
       </c>
-      <c r="H25" s="52">
+      <c r="H25" s="80">
         <v>0.37</v>
       </c>
-      <c r="I25" s="52">
+      <c r="I25" s="80">
         <v>0.32</v>
       </c>
-      <c r="J25" s="52">
+      <c r="J25" s="80">
         <v>0.33</v>
       </c>
-      <c r="K25" s="52">
+      <c r="K25" s="80">
         <v>0.35</v>
       </c>
-      <c r="L25" s="52">
+      <c r="L25" s="80">
         <v>0.47</v>
       </c>
-      <c r="M25" s="52">
+      <c r="M25" s="80">
         <v>112.32</v>
       </c>
-      <c r="N25" s="52">
+      <c r="N25" s="80">
         <v>16.809999999999999</v>
       </c>
-      <c r="O25" s="52">
+      <c r="O25" s="80">
         <v>0.54</v>
       </c>
-      <c r="P25" s="52">
+      <c r="P25" s="80">
         <v>1.97</v>
       </c>
-      <c r="Q25" s="52">
+      <c r="Q25" s="80">
         <v>35.65</v>
       </c>
-      <c r="R25" s="54">
+      <c r="R25" s="81">
         <v>300.39</v>
       </c>
-      <c r="S25" s="52">
+      <c r="S25" s="80">
         <v>47.7</v>
       </c>
-      <c r="T25" s="53">
-        <v>300</v>
-      </c>
-      <c r="U25" s="53">
-        <v>300</v>
-      </c>
-      <c r="V25" s="54">
-        <v>300</v>
-      </c>
-      <c r="W25" s="52">
+      <c r="T25" s="81">
+        <v>300</v>
+      </c>
+      <c r="U25" s="81">
+        <v>300</v>
+      </c>
+      <c r="V25" s="81">
+        <v>300</v>
+      </c>
+      <c r="W25" s="80">
         <v>109.76</v>
       </c>
-      <c r="X25" s="54">
-        <v>300</v>
-      </c>
-      <c r="Y25" s="54">
-        <v>300</v>
-      </c>
-      <c r="Z25" s="52">
+      <c r="X25" s="81">
+        <v>300</v>
+      </c>
+      <c r="Y25" s="81">
+        <v>300</v>
+      </c>
+      <c r="Z25" s="80">
         <v>145.01</v>
       </c>
-      <c r="AA25" s="54">
-        <v>300</v>
-      </c>
-      <c r="AB25" s="54">
-        <v>300</v>
-      </c>
-      <c r="AC25" s="53">
-        <v>300</v>
-      </c>
-      <c r="AD25" s="54">
-        <v>300</v>
-      </c>
-      <c r="AE25" s="54">
-        <v>300</v>
-      </c>
-      <c r="AF25" s="54">
-        <v>300</v>
-      </c>
-      <c r="AG25" s="53">
-        <v>300</v>
-      </c>
-      <c r="AH25" s="54">
-        <v>300</v>
-      </c>
-      <c r="AI25" s="52">
+      <c r="AA25" s="81">
+        <v>300</v>
+      </c>
+      <c r="AB25" s="81">
+        <v>300</v>
+      </c>
+      <c r="AC25" s="81">
+        <v>300</v>
+      </c>
+      <c r="AD25" s="81">
+        <v>300</v>
+      </c>
+      <c r="AE25" s="81">
+        <v>300</v>
+      </c>
+      <c r="AF25" s="81">
+        <v>300</v>
+      </c>
+      <c r="AG25" s="81">
+        <v>300</v>
+      </c>
+      <c r="AH25" s="81">
+        <v>300</v>
+      </c>
+      <c r="AI25" s="80">
         <v>44.24</v>
       </c>
-      <c r="AJ25" s="52">
+      <c r="AJ25" s="80">
         <v>44.68</v>
       </c>
-      <c r="AK25" s="53">
-        <v>300</v>
-      </c>
-      <c r="AL25" s="54">
+      <c r="AK25" s="81">
+        <v>300</v>
+      </c>
+      <c r="AL25" s="81">
         <v>15.81</v>
       </c>
-      <c r="AM25" s="54">
-        <v>300</v>
-      </c>
-      <c r="AN25" s="54">
-        <v>300</v>
-      </c>
-      <c r="AO25" s="54">
-        <v>300</v>
-      </c>
-      <c r="AP25" s="54">
-        <v>300</v>
-      </c>
-      <c r="AQ25" s="70">
+      <c r="AM25" s="81">
+        <v>300</v>
+      </c>
+      <c r="AN25" s="81">
+        <v>300</v>
+      </c>
+      <c r="AO25" s="81">
+        <v>300</v>
+      </c>
+      <c r="AP25" s="81">
+        <v>300</v>
+      </c>
+      <c r="AQ25" s="82">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="71" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="58">
@@ -4283,7 +4295,7 @@
       <c r="AP26" s="59">
         <v>300</v>
       </c>
-      <c r="AQ26" s="69">
+      <c r="AQ26" s="65">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -4948,10 +4960,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="78"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -5530,10 +5542,10 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="65"/>
+      <c r="C25" s="78"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
